--- a/storage/templates/import/bulk-data/plantilla-docentes.xlsx
+++ b/storage/templates/import/bulk-data/plantilla-docentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Projects\PyEduVirtual\PyEducaVirtualBackend\storage\templates\import\bulk-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98128F92-6A25-4560-8A30-A9957B85D90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B77F7A-9C6A-4E5D-8C98-32237395D71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>DNI</t>
   </si>
@@ -166,18 +166,6 @@
   </si>
   <si>
     <t>Número de documento</t>
-  </si>
-  <si>
-    <t>Docente</t>
-  </si>
-  <si>
-    <t>Av.</t>
-  </si>
-  <si>
-    <t>docente@gmail.com</t>
-  </si>
-  <si>
-    <t>docente@ie.com</t>
   </si>
   <si>
     <t>M</t>
@@ -187,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +187,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -250,11 +230,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -262,11 +241,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,17 +535,10 @@
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43" customWidth="1"/>
-    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>41</v>
       </c>
@@ -589,31 +558,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -630,34 +578,13 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2">
-        <v>18001</v>
-      </c>
-      <c r="J2" s="5">
-        <v>33239</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L2">
-        <v>999777888</v>
-      </c>
-      <c r="M2">
+        <v>43</v>
+      </c>
+      <c r="G2">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,9 +592,8 @@
         <v>70000000</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -675,9 +601,8 @@
         <v>70000001</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -685,10 +610,9 @@
         <v>70000002</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -696,11 +620,9 @@
         <v>70000003</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -708,11 +630,9 @@
         <v>70000004</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -720,10 +640,9 @@
         <v>70000005</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,11 +650,9 @@
         <v>70000006</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -743,11 +660,9 @@
         <v>70000007</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
@@ -755,11 +670,9 @@
         <v>70000008</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
@@ -767,11 +680,9 @@
         <v>70000009</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
@@ -779,11 +690,9 @@
         <v>70000010</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,11 +700,9 @@
         <v>70000011</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,11 +710,9 @@
         <v>70000012</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
@@ -815,11 +720,9 @@
         <v>70000013</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,11 +730,9 @@
         <v>70000014</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
@@ -839,11 +740,9 @@
         <v>70000015</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
@@ -851,11 +750,9 @@
         <v>70000016</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
@@ -863,11 +760,9 @@
         <v>70000017</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -875,11 +770,9 @@
         <v>70000018</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
@@ -887,11 +780,9 @@
         <v>70000019</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -899,11 +790,9 @@
         <v>70000020</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -911,11 +800,9 @@
         <v>70000021</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
@@ -923,9 +810,8 @@
         <v>70000022</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="J25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -933,9 +819,8 @@
         <v>70000023</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="J26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
@@ -944,12 +829,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{D8C62058-3239-4D6A-BA66-C3B85D7793FF}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{38073D91-0414-4B3C-800E-AEBE1E645C66}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
